--- a/custom/icds/location_rationalization/tests/data/Location Rationalisation.xlsx
+++ b/custom/icds/location_rationalization/tests/data/Location Rationalisation.xlsx
@@ -43,7 +43,7 @@
     <t>new_awc</t>
   </si>
   <si>
-    <t>transition</t>
+    <t>operation</t>
   </si>
   <si>
     <t>Notes</t>
